--- a/files/msmacrospr25/IRFs_RBC.xlsx
+++ b/files/msmacrospr25/IRFs_RBC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilogranados/Library/CloudStorage/Dropbox/Teaching/UTD/MacroeconomicsCore_MS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE871C-A8A0-2642-8717-4E438AE5053A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F56D4-5DCA-3746-9955-86D5FE342F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="34560" windowHeight="21100" xr2:uid="{803AFBCF-7175-DD40-BB35-1BEDDF83491F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>t</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Q0</t>
+  </si>
+  <si>
+    <t>Model Eqs:</t>
+  </si>
+  <si>
+    <t>Model Solution:</t>
+  </si>
+  <si>
+    <t>Parameters/coefficients (solved):</t>
   </si>
 </sst>
 </file>
@@ -281,7 +290,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -464,145 +473,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81</c:v>
+                  <c:v>0.72900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72900000000000009</c:v>
+                  <c:v>0.65610000000000013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65610000000000013</c:v>
+                  <c:v>0.59049000000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59049000000000018</c:v>
+                  <c:v>0.53144100000000016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53144100000000016</c:v>
+                  <c:v>0.47829690000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47829690000000014</c:v>
+                  <c:v>0.43046721000000016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43046721000000016</c:v>
+                  <c:v>0.38742048900000015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38742048900000015</c:v>
+                  <c:v>0.34867844010000015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34867844010000015</c:v>
+                  <c:v>0.31381059609000017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31381059609000017</c:v>
+                  <c:v>0.28242953648100017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28242953648100017</c:v>
+                  <c:v>0.25418658283290013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25418658283290013</c:v>
+                  <c:v>0.22876792454961012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22876792454961012</c:v>
+                  <c:v>0.2058911320946491</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2058911320946491</c:v>
+                  <c:v>0.18530201888518419</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18530201888518419</c:v>
+                  <c:v>0.16677181699666577</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16677181699666577</c:v>
+                  <c:v>0.15009463529699921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15009463529699921</c:v>
+                  <c:v>0.13508517176729928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13508517176729928</c:v>
+                  <c:v>0.12157665459056936</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12157665459056936</c:v>
+                  <c:v>0.10941898913151243</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.10941898913151243</c:v>
+                  <c:v>9.8477090218361193E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.8477090218361193E-2</c:v>
+                  <c:v>8.8629381196525081E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.8629381196525081E-2</c:v>
+                  <c:v>7.976644307687257E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.976644307687257E-2</c:v>
+                  <c:v>7.1789798769185315E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.1789798769185315E-2</c:v>
+                  <c:v>6.4610818892266789E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.4610818892266789E-2</c:v>
+                  <c:v>5.814973700304011E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.814973700304011E-2</c:v>
+                  <c:v>5.2334763302736099E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2334763302736099E-2</c:v>
+                  <c:v>4.7101286972462492E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.7101286972462492E-2</c:v>
+                  <c:v>4.2391158275216244E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.2391158275216244E-2</c:v>
+                  <c:v>3.8152042447694622E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8152042447694622E-2</c:v>
+                  <c:v>3.4336838202925157E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4336838202925157E-2</c:v>
+                  <c:v>3.0903154382632643E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0903154382632643E-2</c:v>
+                  <c:v>2.7812838944369381E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.7812838944369381E-2</c:v>
+                  <c:v>2.5031555049932444E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5031555049932444E-2</c:v>
+                  <c:v>2.2528399544939199E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2528399544939199E-2</c:v>
+                  <c:v>2.0275559590445278E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0275559590445278E-2</c:v>
+                  <c:v>1.824800363140075E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.824800363140075E-2</c:v>
+                  <c:v>1.6423203268260675E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.6423203268260675E-2</c:v>
+                  <c:v>1.4780882941434608E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4780882941434608E-2</c:v>
+                  <c:v>1.3302794647291147E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3302794647291147E-2</c:v>
+                  <c:v>1.1972515182562033E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1972515182562033E-2</c:v>
+                  <c:v>1.0775263664305829E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0775263664305829E-2</c:v>
+                  <c:v>9.6977372978752467E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.6977372978752467E-3</c:v>
+                  <c:v>8.7279635680877227E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.7279635680877227E-3</c:v>
+                  <c:v>7.8551672112789506E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.8551672112789506E-3</c:v>
+                  <c:v>7.0696504901510554E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,145 +656,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>0.1721460120929266</c:v>
+                  <c:v>0.18467840920925205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18467840920925205</c:v>
+                  <c:v>0.19502044614917324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19502044614917324</c:v>
+                  <c:v>0.20342068106079503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20342068106079503</c:v>
+                  <c:v>0.2101018862409651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2101018862409651</c:v>
+                  <c:v>0.2152636560193622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2152636560193622</c:v>
+                  <c:v>0.21908475293116941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21908475293116941</c:v>
+                  <c:v>0.22172521837855175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22172521837855175</c:v>
+                  <c:v>0.22332827136021899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22332827136021899</c:v>
+                  <c:v>0.22402201648953918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22402201648953918</c:v>
+                  <c:v>0.22392098039876343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22392098039876343</c:v>
+                  <c:v>0.22312749371633325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22312749371633325</c:v>
+                  <c:v>0.22173293408473937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22173293408473937</c:v>
+                  <c:v>0.21981884413887304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21981884413887304</c:v>
+                  <c:v>0.21745793697206173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21745793697206173</c:v>
+                  <c:v>0.21471500036352831</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21471500036352831</c:v>
+                  <c:v>0.21164770991293047</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21164770991293047</c:v>
+                  <c:v>0.20830736021238638</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20830736021238638</c:v>
+                  <c:v>0.20473952227268311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20473952227268311</c:v>
+                  <c:v>0.20098463459805443</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20098463459805443</c:v>
+                  <c:v>0.19707853456385008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19707853456385008</c:v>
+                  <c:v>0.19305293608538174</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.19305293608538174</c:v>
+                  <c:v>0.18893585896681914</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.18893585896681914</c:v>
+                  <c:v>0.18475201477955383</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18475201477955383</c:v>
+                  <c:v>0.18052315363395816</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.18052315363395816</c:v>
+                  <c:v>0.17626837577154328</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17626837577154328</c:v>
+                  <c:v>0.17200441151130366</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17200441151130366</c:v>
+                  <c:v>0.16774587273015895</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16774587273015895</c:v>
+                  <c:v>0.16350547873892984</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.16350547873892984</c:v>
+                  <c:v>0.15929425912867318</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15929425912867318</c:v>
+                  <c:v>0.15512173590426614</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.15512173590426614</c:v>
+                  <c:v>0.15099608699000142</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.15099608699000142</c:v>
+                  <c:v>0.14692429298305465</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.14692429298305465</c:v>
+                  <c:v>0.14291226884268721</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.14291226884268721</c:v>
+                  <c:v>0.13896498203386318</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13896498203386318</c:v>
+                  <c:v>0.1350865584917052</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1350865584917052</c:v>
+                  <c:v>0.1312803776361971</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1312803776361971</c:v>
+                  <c:v>0.12754915754323973</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.12754915754323973</c:v>
+                  <c:v>0.12389503126720339</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12389503126720339</c:v>
+                  <c:v>0.12031961521026793</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.12031961521026793</c:v>
+                  <c:v>0.11682407034398241</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.11682407034398241</c:v>
+                  <c:v>0.11340915700761536</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.11340915700761536</c:v>
+                  <c:v>0.11007528393510013</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.11007528393510013</c:v>
+                  <c:v>0.10682255209690182</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.10682255209690182</c:v>
+                  <c:v>0.10365079388420906</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.10365079388420906</c:v>
+                  <c:v>0.10055960810983414</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.10055960810983414</c:v>
+                  <c:v>9.7548391252494676E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.7548391252494676E-2</c:v>
+                  <c:v>9.4616365328220556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,145 +839,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.45068589116366E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.45068589116366E-2</c:v>
+                  <c:v>0.12053087067192028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12053087067192028</c:v>
+                  <c:v>0.16898433922521389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16898433922521389</c:v>
+                  <c:v>0.21068632132199447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21068632132199447</c:v>
+                  <c:v>0.24637201477352755</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24637201477352755</c:v>
+                  <c:v>0.27670120587952024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27670120587952024</c:v>
+                  <c:v>0.30226587017451018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30226587017451018</c:v>
+                  <c:v>0.32359701122218565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32359701122218565</c:v>
+                  <c:v>0.34117081371198782</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34117081371198782</c:v>
+                  <c:v>0.35541417948504916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35541417948504916</c:v>
+                  <c:v>0.36670970825201094</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36670970825201094</c:v>
+                  <c:v>0.3754001785872611</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3754001785872611</c:v>
+                  <c:v>0.38179257922398713</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38179257922398713</c:v>
+                  <c:v>0.38616173567036038</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.38616173567036038</c:v>
+                  <c:v>0.38875357266354726</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38875357266354726</c:v>
+                  <c:v>0.3897880489250371</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3897880489250371</c:v>
+                  <c:v>0.38946179703293848</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.38946179703293848</c:v>
+                  <c:v>0.38795049794388636</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38795049794388636</c:v>
+                  <c:v>0.38541101674254369</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38541101674254369</c:v>
+                  <c:v>0.38198332353752817</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38198332353752817</c:v>
+                  <c:v>0.37779222102940252</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.37779222102940252</c:v>
+                  <c:v>0.37294889812253318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.37294889812253318</c:v>
+                  <c:v>0.3675523270142137</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3675523270142137</c:v>
+                  <c:v>0.36169051944991798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.36169051944991798</c:v>
+                  <c:v>0.35544165626351076</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.35544165626351076</c:v>
+                  <c:v>0.34887510290824181</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.34887510290824181</c:v>
+                  <c:v>0.34205232241268824</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.34205232241268824</c:v>
+                  <c:v>0.33502769605134403</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33502769605134403</c:v>
+                  <c:v>0.32784926098957262</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.32784926098957262</c:v>
+                  <c:v>0.32055937323568479</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.32055937323568479</c:v>
+                  <c:v>0.31319530339867496</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.31319530339867496</c:v>
+                  <c:v>0.30578977199937718</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.30578977199937718</c:v>
+                  <c:v>0.29837143040713004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.29837143040713004</c:v>
+                  <c:v>0.29096529286597006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.29096529286597006</c:v>
+                  <c:v>0.28359312452713165</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.28359312452713165</c:v>
+                  <c:v>0.27627378991214407</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.27627378991214407</c:v>
+                  <c:v>0.26902356578760289</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26902356578760289</c:v>
+                  <c:v>0.26185642203382292</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.26185642203382292</c:v>
+                  <c:v>0.2547842737306249</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2547842737306249</c:v>
+                  <c:v>0.24781720736046789</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.24781720736046789</c:v>
+                  <c:v>0.24096368373842891</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.24096368373842891</c:v>
+                  <c:v>0.23423072001691111</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.23423072001691111</c:v>
+                  <c:v>0.22762405287752616</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.22762405287752616</c:v>
+                  <c:v>0.22114828481072471</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.22114828481072471</c:v>
+                  <c:v>0.21480701519308315</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.21480701519308315</c:v>
+                  <c:v>0.20860295770057594</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.20860295770057594</c:v>
+                  <c:v>0.20253804544175949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,7 +1029,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1079,7 +1088,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1121,7 +1130,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1775,6 +1784,226 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED38EE-8ABE-0553-43B4-E9D5102F618D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14605000" y="3022600"/>
+          <a:ext cx="3924300" cy="1917700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B597875-09EE-B019-88E2-8A2808B50819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14579600" y="609600"/>
+          <a:ext cx="7772400" cy="1686575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A26A101-FF49-2C11-B6CB-60538C789785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14566900" y="5537200"/>
+          <a:ext cx="7772400" cy="693624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A5508C-3D61-D166-F2A8-BF75049444C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14554200" y="6286500"/>
+          <a:ext cx="4660900" cy="969538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>662847</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A157E4C-59F5-B3F1-FEE4-9DB4795E0176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14528800" y="7302500"/>
+          <a:ext cx="4841147" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2075,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33827651-3C62-2F46-BD13-3CABDB1BCD70}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,7 +2315,7 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2103,20 +2332,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>$G$2*0+B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>$G$5*E2+$G$6*C2</f>
-        <v>0</v>
+        <v>0.1721460120929266</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -2127,25 +2356,28 @@
       <c r="G2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>$G$2*C2+B3</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D49" si="0">$G$5*E3+$G$6*C3</f>
-        <v>0.1721460120929266</v>
+        <v>0.18467840920925205</v>
       </c>
       <c r="E3">
         <f>+$G$3*E2+$G$4*C2</f>
-        <v>0</v>
+        <v>6.45068589116366E-2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -2155,7 +2387,7 @@
         <v>0.96849697389586153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2164,15 +2396,15 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C22" si="1">$G$2*C3+B4</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.18467840920925205</v>
+        <v>0.19502044614917324</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E22" si="2">+$G$3*E3+$G$4*C3</f>
-        <v>6.45068589116366E-2</v>
+        <v>0.12053087067192028</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2182,7 +2414,7 @@
         <v>6.45068589116366E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2191,15 +2423,15 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>0.72900000000000009</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.19502044614917324</v>
+        <v>0.20342068106079503</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>0.12053087067192028</v>
+        <v>0.16898433922521389</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -2209,7 +2441,7 @@
         <v>0.46114473449042714</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2218,15 +2450,15 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.72900000000000009</v>
+        <v>0.65610000000000013</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.20342068106079503</v>
+        <v>0.2101018862409651</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>0.16898433922521389</v>
+        <v>0.21068632132199447</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -2236,7 +2468,7 @@
         <v>0.1721460120929266</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2245,15 +2477,15 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0.65610000000000013</v>
+        <v>0.59049000000000018</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.2101018862409651</v>
+        <v>0.2152636560193622</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0.21068632132199447</v>
+        <v>0.24637201477352755</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -2262,7 +2494,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2271,15 +2503,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0.59049000000000018</v>
+        <v>0.53144100000000016</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.2152636560193622</v>
+        <v>0.21908475293116941</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0.24637201477352755</v>
+        <v>0.27670120587952024</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -2288,7 +2520,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2297,15 +2529,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.53144100000000016</v>
+        <v>0.47829690000000014</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.21908475293116941</v>
+        <v>0.22172521837855175</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>0.27670120587952024</v>
+        <v>0.30226587017451018</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -2315,7 +2547,7 @@
         <v>-9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2324,15 +2556,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0.47829690000000014</v>
+        <v>0.43046721000000016</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.22172521837855175</v>
+        <v>0.22332827136021899</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.30226587017451018</v>
+        <v>0.32359701122218565</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -2341,7 +2573,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2350,15 +2582,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0.43046721000000016</v>
+        <v>0.38742048900000015</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.22332827136021899</v>
+        <v>0.22402201648953918</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.32359701122218565</v>
+        <v>0.34117081371198782</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -2368,7 +2600,7 @@
         <v>-9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2377,15 +2609,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0.38742048900000015</v>
+        <v>0.34867844010000015</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.22402201648953918</v>
+        <v>0.22392098039876343</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>0.34117081371198782</v>
+        <v>0.35541417948504916</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -2395,7 +2627,7 @@
         <v>8.6500000000000084E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2404,15 +2636,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.34867844010000015</v>
+        <v>0.31381059609000017</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.22392098039876343</v>
+        <v>0.22312749371633325</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>0.35541417948504916</v>
+        <v>0.36670970825201094</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
@@ -2422,7 +2654,7 @@
         <v>1.515E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2431,15 +2663,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.31381059609000017</v>
+        <v>0.28242953648100017</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.22312749371633325</v>
+        <v>0.22173293408473937</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0.36670970825201094</v>
+        <v>0.3754001785872611</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -2448,8 +2680,11 @@
         <f>1/2</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2458,18 +2693,18 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.28242953648100017</v>
+        <v>0.25418658283290013</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.22173293408473937</v>
+        <v>0.21981884413887304</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>0.3754001785872611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.38179257922398713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2478,18 +2713,18 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.25418658283290013</v>
+        <v>0.22876792454961012</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.21981884413887304</v>
+        <v>0.21745793697206173</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>0.38179257922398713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38616173567036038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2498,18 +2733,18 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.22876792454961012</v>
+        <v>0.2058911320946491</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.21745793697206173</v>
+        <v>0.21471500036352831</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0.38616173567036038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38875357266354726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2518,18 +2753,18 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.2058911320946491</v>
+        <v>0.18530201888518419</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.21471500036352831</v>
+        <v>0.21164770991293047</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>0.38875357266354726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.3897880489250371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2538,18 +2773,18 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.18530201888518419</v>
+        <v>0.16677181699666577</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.21164770991293047</v>
+        <v>0.20830736021238638</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>0.3897880489250371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38946179703293848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2558,18 +2793,18 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.16677181699666577</v>
+        <v>0.15009463529699921</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.20830736021238638</v>
+        <v>0.20473952227268311</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>0.38946179703293848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38795049794388636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2578,18 +2813,18 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.15009463529699921</v>
+        <v>0.13508517176729928</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.20473952227268311</v>
+        <v>0.20098463459805443</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>0.38795049794388636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38541101674254369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2598,18 +2833,18 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.13508517176729928</v>
+        <v>0.12157665459056936</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.20098463459805443</v>
+        <v>0.19707853456385008</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0.38541101674254369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38198332353752817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2618,18 +2853,18 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C49" si="3">$G$2*C22+B23</f>
-        <v>0.12157665459056936</v>
+        <v>0.10941898913151243</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.19707853456385008</v>
+        <v>0.19305293608538174</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E49" si="4">+$G$3*E22+$G$4*C22</f>
-        <v>0.38198332353752817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.37779222102940252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2638,18 +2873,18 @@
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>0.10941898913151243</v>
+        <v>9.8477090218361193E-2</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.19305293608538174</v>
+        <v>0.18893585896681914</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>0.37779222102940252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.37294889812253318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2658,18 +2893,18 @@
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>9.8477090218361193E-2</v>
+        <v>8.8629381196525081E-2</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.18893585896681914</v>
+        <v>0.18475201477955383</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>0.37294889812253318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.3675523270142137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2678,18 +2913,18 @@
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>8.8629381196525081E-2</v>
+        <v>7.976644307687257E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.18475201477955383</v>
+        <v>0.18052315363395816</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>0.3675523270142137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.36169051944991798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2698,18 +2933,21 @@
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>7.976644307687257E-2</v>
+        <v>7.1789798769185315E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.18052315363395816</v>
+        <v>0.17626837577154328</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>0.36169051944991798</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.35544165626351076</v>
+      </c>
+      <c r="R27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2718,18 +2956,18 @@
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>7.1789798769185315E-2</v>
+        <v>6.4610818892266789E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.17626837577154328</v>
+        <v>0.17200441151130366</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>0.35544165626351076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.34887510290824181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2738,18 +2976,18 @@
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>6.4610818892266789E-2</v>
+        <v>5.814973700304011E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.17200441151130366</v>
+        <v>0.16774587273015895</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>0.34887510290824181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.34205232241268824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2758,18 +2996,18 @@
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>5.814973700304011E-2</v>
+        <v>5.2334763302736099E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.16774587273015895</v>
+        <v>0.16350547873892984</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>0.34205232241268824</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.33502769605134403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2778,18 +3016,18 @@
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>5.2334763302736099E-2</v>
+        <v>4.7101286972462492E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.16350547873892984</v>
+        <v>0.15929425912867318</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>0.33502769605134403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.32784926098957262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2798,15 +3036,15 @@
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
-        <v>4.7101286972462492E-2</v>
+        <v>4.2391158275216244E-2</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.15929425912867318</v>
+        <v>0.15512173590426614</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>0.32784926098957262</v>
+        <v>0.32055937323568479</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2818,15 +3056,15 @@
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>4.2391158275216244E-2</v>
+        <v>3.8152042447694622E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.15512173590426614</v>
+        <v>0.15099608699000142</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>0.32055937323568479</v>
+        <v>0.31319530339867496</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2838,15 +3076,15 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>3.8152042447694622E-2</v>
+        <v>3.4336838202925157E-2</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.15099608699000142</v>
+        <v>0.14692429298305465</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>0.31319530339867496</v>
+        <v>0.30578977199937718</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2858,15 +3096,15 @@
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>3.4336838202925157E-2</v>
+        <v>3.0903154382632643E-2</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.14692429298305465</v>
+        <v>0.14291226884268721</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>0.30578977199937718</v>
+        <v>0.29837143040713004</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2878,15 +3116,15 @@
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>3.0903154382632643E-2</v>
+        <v>2.7812838944369381E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.14291226884268721</v>
+        <v>0.13896498203386318</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>0.29837143040713004</v>
+        <v>0.29096529286597006</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2898,15 +3136,15 @@
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>2.7812838944369381E-2</v>
+        <v>2.5031555049932444E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.13896498203386318</v>
+        <v>0.1350865584917052</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>0.29096529286597006</v>
+        <v>0.28359312452713165</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,15 +3156,15 @@
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>2.5031555049932444E-2</v>
+        <v>2.2528399544939199E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.1350865584917052</v>
+        <v>0.1312803776361971</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
-        <v>0.28359312452713165</v>
+        <v>0.27627378991214407</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2938,15 +3176,15 @@
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>2.2528399544939199E-2</v>
+        <v>2.0275559590445278E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.1312803776361971</v>
+        <v>0.12754915754323973</v>
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
-        <v>0.27627378991214407</v>
+        <v>0.26902356578760289</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2958,15 +3196,15 @@
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>2.0275559590445278E-2</v>
+        <v>1.824800363140075E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.12754915754323973</v>
+        <v>0.12389503126720339</v>
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
-        <v>0.26902356578760289</v>
+        <v>0.26185642203382292</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2978,15 +3216,15 @@
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>1.824800363140075E-2</v>
+        <v>1.6423203268260675E-2</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.12389503126720339</v>
+        <v>0.12031961521026793</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>0.26185642203382292</v>
+        <v>0.2547842737306249</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2998,15 +3236,15 @@
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>1.6423203268260675E-2</v>
+        <v>1.4780882941434608E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0.12031961521026793</v>
+        <v>0.11682407034398241</v>
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
-        <v>0.2547842737306249</v>
+        <v>0.24781720736046789</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,15 +3256,15 @@
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>1.4780882941434608E-2</v>
+        <v>1.3302794647291147E-2</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.11682407034398241</v>
+        <v>0.11340915700761536</v>
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
-        <v>0.24781720736046789</v>
+        <v>0.24096368373842891</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3038,15 +3276,15 @@
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>1.3302794647291147E-2</v>
+        <v>1.1972515182562033E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.11340915700761536</v>
+        <v>0.11007528393510013</v>
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
-        <v>0.24096368373842891</v>
+        <v>0.23423072001691111</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3058,15 +3296,15 @@
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>1.1972515182562033E-2</v>
+        <v>1.0775263664305829E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0.11007528393510013</v>
+        <v>0.10682255209690182</v>
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
-        <v>0.23423072001691111</v>
+        <v>0.22762405287752616</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3078,15 +3316,15 @@
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>1.0775263664305829E-2</v>
+        <v>9.6977372978752467E-3</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.10682255209690182</v>
+        <v>0.10365079388420906</v>
       </c>
       <c r="E46">
         <f t="shared" si="4"/>
-        <v>0.22762405287752616</v>
+        <v>0.22114828481072471</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,15 +3336,15 @@
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>9.6977372978752467E-3</v>
+        <v>8.7279635680877227E-3</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.10365079388420906</v>
+        <v>0.10055960810983414</v>
       </c>
       <c r="E47">
         <f t="shared" si="4"/>
-        <v>0.22114828481072471</v>
+        <v>0.21480701519308315</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3118,15 +3356,15 @@
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>8.7279635680877227E-3</v>
+        <v>7.8551672112789506E-3</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.10055960810983414</v>
+        <v>9.7548391252494676E-2</v>
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
-        <v>0.21480701519308315</v>
+        <v>0.20860295770057594</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3138,15 +3376,15 @@
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>7.8551672112789506E-3</v>
+        <v>7.0696504901510554E-3</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>9.7548391252494676E-2</v>
+        <v>9.4616365328220556E-2</v>
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
-        <v>0.20860295770057594</v>
+        <v>0.20253804544175949</v>
       </c>
     </row>
   </sheetData>
